--- a/erp/wwwroot/demo.xlsx
+++ b/erp/wwwroot/demo.xlsx
@@ -6,16 +6,30 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Demo" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">this is content</t>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kane Williamson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Guptil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colin Munro</t>
   </si>
 </sst>
 </file>
@@ -31,32 +45,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="39"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="34"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="34"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -71,10 +65,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -87,35 +79,48 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="120" customHeight="1">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
